--- a/indexer_lib/data/CDI mensal.xlsx
+++ b/indexer_lib/data/CDI mensal.xlsx
@@ -479,6 +479,15 @@
       <c r="E2" s="2">
         <v>0.20780000000000001</v>
       </c>
+      <c r="F2" s="2">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.35560000000000003</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/CDI mensal.xlsx
+++ b/indexer_lib/data/CDI mensal.xlsx
@@ -488,6 +488,9 @@
       <c r="H2" s="2">
         <v>0.35560000000000003</v>
       </c>
+      <c r="I2" s="2">
+        <v>0.4279</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/CDI mensal.xlsx
+++ b/indexer_lib/data/CDI mensal.xlsx
@@ -491,6 +491,9 @@
       <c r="I2" s="2">
         <v>0.4279</v>
       </c>
+      <c r="J2" s="2">
+        <v>0.44190000000000002</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/CDI mensal.xlsx
+++ b/indexer_lib/data/CDI mensal.xlsx
@@ -494,6 +494,9 @@
       <c r="J2" s="2">
         <v>0.44190000000000002</v>
       </c>
+      <c r="K2" s="2">
+        <v>0.48599999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/CDI mensal.xlsx
+++ b/indexer_lib/data/CDI mensal.xlsx
@@ -497,6 +497,9 @@
       <c r="K2" s="2">
         <v>0.48599999999999999</v>
       </c>
+      <c r="L2" s="2">
+        <v>0.58679999999999999</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>

--- a/indexer_lib/data/CDI mensal.xlsx
+++ b/indexer_lib/data/CDI mensal.xlsx
@@ -500,6 +500,9 @@
       <c r="L2" s="2">
         <v>0.58679999999999999</v>
       </c>
+      <c r="M2" s="2">
+        <v>0.77</v>
+      </c>
       <c r="O2" t="s">
         <v>14</v>
       </c>
